--- a/data/Study_dates_MeLiDos_MPI.xlsx
+++ b/data/Study_dates_MeLiDos_MPI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zauner/Documents/Arbeit/12-TUM/WP2.2.5_Data_Analysis/GuidolinEtAl_Dataset_2025/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78CADDA4-DA91-5D40-A682-5940877B5AE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A93A283D-C2E3-0B4D-A47C-CBA8DF4CDE3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32900" yWindow="33180" windowWidth="29040" windowHeight="15840" xr2:uid="{EB2C5E3B-016F-4147-BA32-349D8E1D3953}"/>
+    <workbookView xWindow="51200" yWindow="620" windowWidth="29040" windowHeight="17520" xr2:uid="{EB2C5E3B-016F-4147-BA32-349D8E1D3953}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="49">
   <si>
     <t>subjectID_device</t>
   </si>
@@ -62,13 +61,136 @@
   </si>
   <si>
     <t>Sampling_sec</t>
+  </si>
+  <si>
+    <t>21/8/2023 09:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14/8/2023  12:10 </t>
+  </si>
+  <si>
+    <t>14/8/2023  12:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14/8/2023  12:55 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">14/8/2023  12:45 </t>
+  </si>
+  <si>
+    <t>14/8/2023  14:10</t>
+  </si>
+  <si>
+    <t>14/8/2023  14:00</t>
+  </si>
+  <si>
+    <t>21/8/2023 15:00</t>
+  </si>
+  <si>
+    <t>28/8/2023 14:40</t>
+  </si>
+  <si>
+    <t>28/8/2023 14:30</t>
+  </si>
+  <si>
+    <t>28/8/2023 13:15</t>
+  </si>
+  <si>
+    <t>28/8/2023 13:30</t>
+  </si>
+  <si>
+    <t>18/09/2023 08:00</t>
+  </si>
+  <si>
+    <t>18/09/2023 09:00</t>
+  </si>
+  <si>
+    <t>25/09/2023 13:55</t>
+  </si>
+  <si>
+    <t>25/09/2023 13:45</t>
+  </si>
+  <si>
+    <t>missing timestamp for trial end - probably 5 minutes after discharge time</t>
+  </si>
+  <si>
+    <t>16/10/2023 10:10</t>
+  </si>
+  <si>
+    <t>16/10/2023 10:00</t>
+  </si>
+  <si>
+    <t>23/10/2023 09:00</t>
+  </si>
+  <si>
+    <t>16/10/2023 11:40</t>
+  </si>
+  <si>
+    <t>16/10/2023 11:30</t>
+  </si>
+  <si>
+    <t>23/10/2023 10:10</t>
+  </si>
+  <si>
+    <t>30/10/2023 09:00</t>
+  </si>
+  <si>
+    <t>23/10/2023 11:30</t>
+  </si>
+  <si>
+    <t>23/10/2023 11:40</t>
+  </si>
+  <si>
+    <t>30/10/2023 10:30</t>
+  </si>
+  <si>
+    <t>30/10/2023 10:40</t>
+  </si>
+  <si>
+    <t>30/10/2023 12:25</t>
+  </si>
+  <si>
+    <t>30/10/2023 12:15</t>
+  </si>
+  <si>
+    <t>30/10/2023 14:10</t>
+  </si>
+  <si>
+    <t>30/10/2023 14:00</t>
+  </si>
+  <si>
+    <t>30/10/2023 15:40</t>
+  </si>
+  <si>
+    <t>30/10/2023 15:30</t>
+  </si>
+  <si>
+    <t>30/10/2023 16:40</t>
+  </si>
+  <si>
+    <t>30/10/2023 16:30</t>
+  </si>
+  <si>
+    <t>13/11/2023 09:00</t>
+  </si>
+  <si>
+    <t>13/11/2023 09:45</t>
+  </si>
+  <si>
+    <t>datetime_trial_end timestamp from wearlog rather than "participant data sheet"</t>
+  </si>
+  <si>
+    <t>6.11.23.9:00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="d/m/yy\ h:mm;@"/>
+  </numFmts>
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -80,13 +202,6 @@
       <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -104,19 +219,35 @@
     </font>
     <font>
       <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="Aptos Narrow"/>
-      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -127,6 +258,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -142,7 +279,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -150,34 +287,45 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="22" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="22" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="22" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="22" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="22" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="22" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="22" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="22" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -514,522 +662,1298 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99FC5442-6448-E04F-A77B-2FCED9BD29CA}">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="2" width="23" style="1" customWidth="1"/>
     <col min="3" max="3" width="17.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23" style="12" customWidth="1"/>
-    <col min="5" max="5" width="23" style="13" customWidth="1"/>
-    <col min="6" max="7" width="23" style="12" customWidth="1"/>
-    <col min="8" max="8" width="23.6640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23" style="5" customWidth="1"/>
+    <col min="5" max="5" width="23" style="15" customWidth="1"/>
+    <col min="6" max="6" width="23" style="5" customWidth="1"/>
+    <col min="7" max="7" width="29.1640625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="23.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="57.6640625" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:9" s="13" customFormat="1">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="12" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="4"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="14">
+    <row r="2" spans="1:9">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="I2" s="8"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="2">
         <v>201</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="6">
-        <f>H3-7</f>
-        <v>45152.5</v>
-      </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="6">
-        <v>45159.5</v>
-      </c>
-      <c r="I3" s="4"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="14">
+      <c r="B3" s="2">
+        <v>1020</v>
+      </c>
+      <c r="C3" s="2">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="15">
+        <v>45152.527777777781</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="4">
+        <v>45159.377083333333</v>
+      </c>
+      <c r="I3" s="8"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="2">
         <v>202</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="6">
-        <f>H4-7</f>
-        <v>45152.5</v>
-      </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="6">
-        <v>45159.5</v>
-      </c>
-      <c r="I4" s="4"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="14">
+      <c r="B4" s="2">
+        <v>1382</v>
+      </c>
+      <c r="C4" s="2">
+        <v>10</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="15">
+        <v>45152.55972222222</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="4">
+        <v>45159.380555555559</v>
+      </c>
+      <c r="I4" s="8"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="2">
         <v>204</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="6">
-        <f>H5-7</f>
-        <v>45152.5</v>
-      </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="6">
-        <v>45159.5</v>
-      </c>
-      <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="14">
+      <c r="B5" s="2">
+        <v>1740</v>
+      </c>
+      <c r="C5" s="2">
+        <v>10</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="16">
+        <v>45152.613194444442</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="18">
+        <v>45159.645138888889</v>
+      </c>
+      <c r="I5" s="8"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="2">
         <v>205</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="6">
-        <f t="shared" ref="E6:E28" si="0">H6-7</f>
-        <v>45166.5</v>
-      </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="6">
-        <v>45173.5</v>
-      </c>
-      <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="14">
+      <c r="B6" s="2">
+        <v>1020</v>
+      </c>
+      <c r="C6" s="2">
+        <v>10</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="15">
+        <v>45166.65347222222</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="3">
+        <v>45025.375</v>
+      </c>
+      <c r="H6" s="15">
+        <v>45025.421527777777</v>
+      </c>
+      <c r="I6" s="8"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="2">
         <v>206</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="6">
-        <f t="shared" si="0"/>
-        <v>45166.5</v>
-      </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="6">
-        <v>45173.5</v>
-      </c>
-      <c r="I7" s="4"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="14">
+      <c r="B7" s="7">
+        <v>1382</v>
+      </c>
+      <c r="C7" s="2">
+        <v>10</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="15">
+        <v>45166.594444444447</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="3">
+        <v>45025.375</v>
+      </c>
+      <c r="H7" s="15">
+        <v>45025.379861111112</v>
+      </c>
+      <c r="I7" s="8"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="2">
         <v>208</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="6">
-        <f t="shared" si="0"/>
-        <v>45173.5</v>
-      </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="6">
-        <v>45180.5</v>
-      </c>
-      <c r="I8" s="4"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="14">
+      <c r="B8" s="2">
+        <v>1020</v>
+      </c>
+      <c r="C8" s="2">
+        <v>10</v>
+      </c>
+      <c r="D8" s="3">
+        <v>45025.486111111109</v>
+      </c>
+      <c r="E8" s="15">
+        <v>45025.525000000001</v>
+      </c>
+      <c r="F8" s="3">
+        <v>45025.479166666664</v>
+      </c>
+      <c r="G8" s="3">
+        <v>45239.333333333336</v>
+      </c>
+      <c r="H8" s="15">
+        <v>45239.338194444441</v>
+      </c>
+      <c r="I8" s="8"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="2">
         <v>209</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="6">
-        <f t="shared" si="0"/>
-        <v>45173.5</v>
-      </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="6">
-        <v>45180.5</v>
-      </c>
-      <c r="I9" s="4"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="14">
+      <c r="B9" s="2">
+        <v>1382</v>
+      </c>
+      <c r="C9" s="2">
+        <v>10</v>
+      </c>
+      <c r="D9" s="3">
+        <v>45025.538194444445</v>
+      </c>
+      <c r="E9" s="15">
+        <v>45025.584722222222</v>
+      </c>
+      <c r="F9" s="3">
+        <v>45025.53125</v>
+      </c>
+      <c r="G9" s="3">
+        <v>45239.333333333336</v>
+      </c>
+      <c r="H9" s="15">
+        <v>45239.344444444447</v>
+      </c>
+      <c r="I9" s="8"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="2">
         <v>210</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="6">
-        <f t="shared" si="0"/>
-        <v>45173.5</v>
-      </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="6">
-        <v>45180.5</v>
-      </c>
-      <c r="I10" s="4"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="14">
+      <c r="B10" s="2">
+        <v>1607</v>
+      </c>
+      <c r="C10" s="2">
+        <v>10</v>
+      </c>
+      <c r="D10" s="3">
+        <v>45025.59375</v>
+      </c>
+      <c r="E10" s="15">
+        <v>45025.638888888891</v>
+      </c>
+      <c r="F10" s="3">
+        <v>45025.586805555555</v>
+      </c>
+      <c r="G10" s="3">
+        <v>45239.333333333336</v>
+      </c>
+      <c r="H10" s="15">
+        <v>45239.349305555559</v>
+      </c>
+      <c r="I10" s="8"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="2">
         <v>212</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="6">
-        <f t="shared" si="0"/>
-        <v>45180.5</v>
-      </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="6">
-        <v>45187.5</v>
-      </c>
-      <c r="I11" s="4"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="14">
+      <c r="B11" s="2">
+        <v>1020</v>
+      </c>
+      <c r="C11" s="2">
+        <v>10</v>
+      </c>
+      <c r="D11" s="3">
+        <v>45239.506944444445</v>
+      </c>
+      <c r="E11" s="15">
+        <v>45239.543055555558</v>
+      </c>
+      <c r="F11" s="3">
+        <v>45239.5</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="19">
+        <v>45187.335416666669</v>
+      </c>
+      <c r="I11" s="8"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="2">
         <v>213</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="6">
-        <f t="shared" si="0"/>
-        <v>45180.5</v>
-      </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="6">
-        <v>45187.5</v>
-      </c>
-      <c r="I12" s="4"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="14">
+      <c r="B12" s="2">
+        <v>1382</v>
+      </c>
+      <c r="C12" s="2">
+        <v>10</v>
+      </c>
+      <c r="D12" s="3">
+        <v>45239.579861111109</v>
+      </c>
+      <c r="E12" s="15">
+        <v>45239.629166666666</v>
+      </c>
+      <c r="F12" s="3">
+        <v>45239.572916666664</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="19">
+        <v>45187.37777777778</v>
+      </c>
+      <c r="I12" s="8"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="2">
         <v>214</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="6">
-        <f t="shared" si="0"/>
-        <v>45194.5</v>
-      </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="6">
-        <v>45201.5</v>
-      </c>
-      <c r="I13" s="4"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="14">
+      <c r="B13" s="2">
+        <v>1607</v>
+      </c>
+      <c r="C13" s="2">
+        <v>10</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="15">
+        <v>45194.62222222222</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="3">
+        <v>44967.375</v>
+      </c>
+      <c r="H13" s="15">
+        <v>44967.376388888886</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="2">
         <v>215</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="6">
-        <f t="shared" si="0"/>
-        <v>45201.5</v>
-      </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="6">
-        <v>45208.5</v>
-      </c>
-      <c r="I14" s="4"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="14">
+      <c r="B14" s="2">
+        <v>1020</v>
+      </c>
+      <c r="C14" s="2">
+        <v>10</v>
+      </c>
+      <c r="D14" s="3">
+        <v>44967.444444444445</v>
+      </c>
+      <c r="E14" s="15">
+        <v>44967.479166666664</v>
+      </c>
+      <c r="F14" s="3">
+        <v>44967.4375</v>
+      </c>
+      <c r="G14" s="3">
+        <v>45179.375</v>
+      </c>
+      <c r="H14" s="15">
+        <v>45179.385416666664</v>
+      </c>
+      <c r="I14" s="8"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="2">
         <v>216</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="6">
-        <f t="shared" si="0"/>
-        <v>45201.520833333336</v>
-      </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="6">
-        <v>45208.520833333336</v>
-      </c>
-      <c r="I15" s="4"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="14">
+      <c r="B15" s="2">
+        <v>1382</v>
+      </c>
+      <c r="C15" s="2">
+        <v>10</v>
+      </c>
+      <c r="D15" s="3">
+        <v>41315.569444444445</v>
+      </c>
+      <c r="E15" s="15">
+        <v>44967.604861111111</v>
+      </c>
+      <c r="F15" s="3">
+        <v>41315.5625</v>
+      </c>
+      <c r="G15" s="3">
+        <v>45179.520833333336</v>
+      </c>
+      <c r="H15" s="15">
+        <v>45179.520833333336</v>
+      </c>
+      <c r="I15" s="8"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="2">
         <v>218</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="6">
-        <f t="shared" si="0"/>
-        <v>45215.5</v>
-      </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="6">
-        <v>45222.5</v>
-      </c>
-      <c r="I16" s="4"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="14">
+      <c r="B16" s="2">
+        <v>1020</v>
+      </c>
+      <c r="C16" s="2">
+        <v>10</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="15">
+        <v>45215.470833333333</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" s="4">
+        <v>45222.348611111112</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A17" s="2">
         <v>219</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="6">
-        <f t="shared" si="0"/>
-        <v>45215.5</v>
-      </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="6">
-        <v>45222.5</v>
-      </c>
-      <c r="I17" s="4"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="14">
+      <c r="B17" s="2">
+        <v>1382</v>
+      </c>
+      <c r="C17" s="2">
+        <v>10</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="15">
+        <v>45215.527777777781</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" s="15">
+        <v>45222.375</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="2">
         <v>221</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="E18" s="6">
-        <f t="shared" si="0"/>
-        <v>45222.5</v>
-      </c>
-      <c r="F18" s="8"/>
-      <c r="H18" s="6">
-        <v>45229.5</v>
-      </c>
-      <c r="I18" s="4"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="14">
+      <c r="B18" s="2">
+        <v>1607</v>
+      </c>
+      <c r="C18" s="2">
+        <v>10</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="15">
+        <v>45222.473611111112</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H18" s="15">
+        <v>45229.375</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="2">
         <v>222</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="6">
-        <f t="shared" si="0"/>
-        <v>45222.5</v>
-      </c>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="6">
-        <v>45229.5</v>
-      </c>
-      <c r="I19" s="4"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="14">
+      <c r="B19" s="2">
+        <v>1020</v>
+      </c>
+      <c r="C19" s="2">
+        <v>10</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="15">
+        <v>45222.548611111109</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H19" s="4">
+        <v>45229.379166666666</v>
+      </c>
+      <c r="I19" s="8"/>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A20" s="2">
         <v>223</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="6">
-        <f t="shared" si="0"/>
-        <v>45229.5</v>
-      </c>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="6">
-        <v>45236.5</v>
-      </c>
-      <c r="I20" s="4"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="14">
+      <c r="B20" s="2">
+        <v>2540</v>
+      </c>
+      <c r="C20" s="2">
+        <v>10</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="16">
+        <v>45229.481944444444</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G20" s="3">
+        <v>45088.291666666664</v>
+      </c>
+      <c r="H20" s="15">
+        <v>45236.291666666664</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A21" s="2">
         <v>224</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="6">
-        <f t="shared" si="0"/>
-        <v>45229.5</v>
-      </c>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="6">
-        <v>45236.5</v>
-      </c>
-      <c r="I21" s="4"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="14">
+      <c r="B21" s="2">
+        <v>2663</v>
+      </c>
+      <c r="C21" s="2">
+        <v>10</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="16">
+        <v>45229.558333333334</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" s="3">
+        <v>45088.375</v>
+      </c>
+      <c r="H21" s="15">
+        <v>45236.375</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="18" customHeight="1">
+      <c r="A22" s="2">
         <v>225</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="6">
-        <f t="shared" si="0"/>
-        <v>45229.5</v>
-      </c>
-      <c r="H22" s="6">
-        <v>45236.5</v>
-      </c>
-      <c r="I22" s="4"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="14">
+      <c r="B22" s="2">
+        <v>2793</v>
+      </c>
+      <c r="C22" s="2">
+        <v>10</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="16">
+        <v>45229.628472222219</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G22" s="3">
+        <v>45088.375</v>
+      </c>
+      <c r="H22" s="16">
+        <v>45236.375</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="2">
         <v>226</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="6">
-        <f t="shared" si="0"/>
-        <v>45229.520833333336</v>
-      </c>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="6">
-        <v>45236.520833333336</v>
-      </c>
-      <c r="I23" s="4"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="14">
+      <c r="B23" s="2">
+        <v>1382</v>
+      </c>
+      <c r="C23" s="2">
+        <v>10</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" s="16">
+        <v>45229.69027777778</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G23" s="3">
+        <v>45088.375</v>
+      </c>
+      <c r="H23" s="16">
+        <v>45236.375</v>
+      </c>
+      <c r="I23" s="8"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="2">
         <v>227</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="6">
-        <f t="shared" si="0"/>
-        <v>45229.5</v>
-      </c>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="6">
-        <v>45236.5</v>
-      </c>
-      <c r="I24" s="4"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="14">
+      <c r="B24" s="2">
+        <v>1607</v>
+      </c>
+      <c r="C24" s="2">
+        <v>10</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" s="16">
+        <v>45229.738888888889</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G24" s="3">
+        <v>45088.375</v>
+      </c>
+      <c r="H24" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="I24" s="8"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="2">
         <v>228</v>
       </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="6">
-        <f t="shared" si="0"/>
-        <v>45236.5</v>
-      </c>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="6">
-        <v>45243.5</v>
-      </c>
-      <c r="I25" s="4"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="14">
+      <c r="B25" s="1">
+        <v>1020</v>
+      </c>
+      <c r="C25" s="1">
+        <v>10</v>
+      </c>
+      <c r="D25" s="3">
+        <v>45088.423611111109</v>
+      </c>
+      <c r="E25" s="15">
+        <v>45088.459722222222</v>
+      </c>
+      <c r="F25" s="3">
+        <v>45088.416666666664</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" s="4">
+        <v>45243.325694444444</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="2">
         <v>229</v>
       </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="E26" s="6">
-        <f t="shared" si="0"/>
-        <v>45236.5</v>
-      </c>
-      <c r="H26" s="6">
-        <v>45243.5</v>
-      </c>
-      <c r="I26" s="4"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="14">
+      <c r="B26" s="2">
+        <v>2540</v>
+      </c>
+      <c r="C26" s="2">
+        <v>10</v>
+      </c>
+      <c r="D26" s="3">
+        <v>45088.46875</v>
+      </c>
+      <c r="E26" s="15">
+        <v>45088.523611111108</v>
+      </c>
+      <c r="F26" s="3">
+        <v>45088.461805555555</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" s="4">
+        <v>45243.376388888886</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="14.25" customHeight="1">
+      <c r="A27" s="2">
         <v>230</v>
       </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="6">
-        <f t="shared" si="0"/>
-        <v>45236.5</v>
-      </c>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="6">
-        <v>45243.5</v>
-      </c>
-      <c r="I27" s="4"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="14">
+      <c r="B27" s="2">
+        <v>2663</v>
+      </c>
+      <c r="C27" s="2">
+        <v>10</v>
+      </c>
+      <c r="D27" s="3">
+        <v>45088.548611111109</v>
+      </c>
+      <c r="E27" s="15">
+        <v>45088.584722222222</v>
+      </c>
+      <c r="F27" s="3">
+        <v>45088.541666666664</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" s="15">
+        <v>45243.375</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="2">
         <v>231</v>
       </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="6">
-        <f t="shared" si="0"/>
-        <v>45236.5</v>
-      </c>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="6">
-        <v>45243.5</v>
-      </c>
-      <c r="I28" s="4"/>
+      <c r="B28" s="2">
+        <v>2793</v>
+      </c>
+      <c r="C28" s="2">
+        <v>10</v>
+      </c>
+      <c r="D28" s="3">
+        <v>45088.673611111109</v>
+      </c>
+      <c r="E28" s="15">
+        <v>45088.716666666667</v>
+      </c>
+      <c r="F28" s="3">
+        <v>45088.666666666664</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" s="4">
+        <v>45243.40902777778</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="I29" s="8"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="I30" s="8"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="I32" s="8"/>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="I33" s="8"/>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="3"/>
+      <c r="I34" s="8"/>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="I35" s="8"/>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="I36" s="8"/>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="I37" s="8"/>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="3"/>
+      <c r="I38" s="8"/>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="I39" s="8"/>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="I40" s="8"/>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="I41" s="8"/>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="3"/>
+      <c r="I42" s="8"/>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="I43" s="8"/>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="I44" s="8"/>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="I45" s="8"/>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="3"/>
+      <c r="I46" s="8"/>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="I48" s="8"/>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="I49" s="8"/>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="3"/>
+      <c r="I50" s="8"/>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="I51" s="8"/>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="I52" s="8"/>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="I53" s="8"/>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="3"/>
+      <c r="I54" s="8"/>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="I55" s="8"/>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="I56" s="8"/>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="I57" s="8"/>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="3"/>
+      <c r="I58" s="8"/>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="I59" s="8"/>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="I60" s="8"/>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+      <c r="I61" s="8"/>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="C62" s="2"/>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="2"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" s="2"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3"/>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" s="2"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="3"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3"/>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="C66" s="2"/>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" s="2"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="3"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="3"/>
+      <c r="I67" s="8"/>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" s="2"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="3"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="3"/>
+      <c r="I68" s="8"/>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" s="2"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="3"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
+      <c r="I69" s="8"/>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="C70" s="2"/>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" s="2"/>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="3"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
+      <c r="I71" s="8"/>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" s="2"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="3"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3"/>
+      <c r="I72" s="8"/>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" s="2"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="3"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="3"/>
+      <c r="I73" s="8"/>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="C74" s="2"/>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" s="2"/>
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="3"/>
+      <c r="F75" s="3"/>
+      <c r="G75" s="3"/>
+      <c r="I75" s="8"/>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" s="2"/>
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="3"/>
+      <c r="F76" s="3"/>
+      <c r="G76" s="3"/>
+      <c r="I76" s="8"/>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" s="2"/>
+      <c r="B77" s="2"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="3"/>
+      <c r="F77" s="3"/>
+      <c r="G77" s="3"/>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="C78" s="2"/>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" s="2"/>
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="3"/>
+      <c r="F79" s="3"/>
+      <c r="G79" s="3"/>
+      <c r="I79" s="8"/>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" s="2"/>
+      <c r="B80" s="2"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="3"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="3"/>
+      <c r="I80" s="8"/>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" s="2"/>
+      <c r="B81" s="2"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="3"/>
+      <c r="F81" s="3"/>
+      <c r="G81" s="3"/>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="C82" s="2"/>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" s="2"/>
+      <c r="B83" s="2"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="3"/>
+      <c r="F83" s="3"/>
+      <c r="G83" s="3"/>
+      <c r="I83" s="8"/>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" s="2"/>
+      <c r="B84" s="2"/>
+      <c r="C84" s="2"/>
+      <c r="D84" s="3"/>
+      <c r="F84" s="3"/>
+      <c r="G84" s="3"/>
+      <c r="I84" s="8"/>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" s="2"/>
+      <c r="B85" s="2"/>
+      <c r="C85" s="2"/>
+      <c r="D85" s="3"/>
+      <c r="F85" s="3"/>
+      <c r="G85" s="3"/>
+      <c r="I85" s="8"/>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="C86" s="2"/>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" s="2"/>
+      <c r="B87" s="2"/>
+      <c r="C87" s="2"/>
+      <c r="D87" s="3"/>
+      <c r="F87" s="3"/>
+      <c r="G87" s="3"/>
+      <c r="I87" s="8"/>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" s="2"/>
+      <c r="B88" s="2"/>
+      <c r="C88" s="2"/>
+      <c r="D88" s="3"/>
+      <c r="F88" s="3"/>
+      <c r="G88" s="3"/>
+      <c r="I88" s="8"/>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" s="2"/>
+      <c r="B89" s="2"/>
+      <c r="C89" s="2"/>
+      <c r="D89" s="3"/>
+      <c r="F89" s="3"/>
+      <c r="G89" s="3"/>
+      <c r="I89" s="8"/>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="C90" s="2"/>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91" s="2"/>
+      <c r="B91" s="2"/>
+      <c r="C91" s="2"/>
+      <c r="D91" s="3"/>
+      <c r="F91" s="3"/>
+      <c r="G91" s="3"/>
+      <c r="I91" s="8"/>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92" s="2"/>
+      <c r="B92" s="2"/>
+      <c r="C92" s="2"/>
+      <c r="D92" s="3"/>
+      <c r="F92" s="3"/>
+      <c r="G92" s="3"/>
+      <c r="I92" s="8"/>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" s="2"/>
+      <c r="B93" s="2"/>
+      <c r="C93" s="2"/>
+      <c r="D93" s="3"/>
+      <c r="F93" s="3"/>
+      <c r="G93" s="3"/>
+      <c r="I93" s="8"/>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="C94" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/data/Study_dates_MeLiDos_MPI.xlsx
+++ b/data/Study_dates_MeLiDos_MPI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zauner/Documents/Arbeit/12-TUM/WP2.2.5_Data_Analysis/GuidolinEtAl_Dataset_2025/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A93A283D-C2E3-0B4D-A47C-CBA8DF4CDE3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A94F02C6-1DC0-EA4D-B472-7EE13E1CC68F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51200" yWindow="620" windowWidth="29040" windowHeight="17520" xr2:uid="{EB2C5E3B-016F-4147-BA32-349D8E1D3953}"/>
+    <workbookView xWindow="1100" yWindow="680" windowWidth="33460" windowHeight="21660" xr2:uid="{EB2C5E3B-016F-4147-BA32-349D8E1D3953}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="48">
   <si>
     <t>subjectID_device</t>
   </si>
@@ -178,9 +178,6 @@
   </si>
   <si>
     <t>datetime_trial_end timestamp from wearlog rather than "participant data sheet"</t>
-  </si>
-  <si>
-    <t>6.11.23.9:00</t>
   </si>
 </sst>
 </file>
@@ -188,7 +185,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="d/m/yy\ h:mm;@"/>
+    <numFmt numFmtId="164" formatCode="d/m/yy\ h:mm;@"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -279,7 +276,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -288,9 +285,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="22" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="22" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -312,20 +306,11 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="22" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="22" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -662,576 +647,596 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99FC5442-6448-E04F-A77B-2FCED9BD29CA}">
-  <dimension ref="A1:I94"/>
+  <dimension ref="A1:I93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="2" width="23" style="1" customWidth="1"/>
     <col min="3" max="3" width="17.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23" style="5" customWidth="1"/>
-    <col min="5" max="5" width="23" style="15" customWidth="1"/>
-    <col min="6" max="6" width="23" style="5" customWidth="1"/>
-    <col min="7" max="7" width="29.1640625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="23.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="57.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23" style="4" customWidth="1"/>
+    <col min="5" max="5" width="23" style="14" customWidth="1"/>
+    <col min="6" max="6" width="23" style="4" customWidth="1"/>
+    <col min="7" max="7" width="29.1640625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="23" style="14" customWidth="1"/>
+    <col min="9" max="9" width="57.6640625" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="13" customFormat="1">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:9" s="12" customFormat="1">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="I2" s="8"/>
+      <c r="A2" s="2">
+        <v>201</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1020</v>
+      </c>
+      <c r="C2" s="2">
+        <v>10</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="14">
+        <v>45152.527777777781</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="14">
+        <v>45159.377083333333</v>
+      </c>
+      <c r="I2" s="7"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B3" s="2">
-        <v>1020</v>
+        <v>1382</v>
       </c>
       <c r="C3" s="2">
         <v>10</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="15">
-        <v>45152.527777777781</v>
+        <v>12</v>
+      </c>
+      <c r="E3" s="14">
+        <v>45152.55972222222</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="4">
-        <v>45159.377083333333</v>
-      </c>
-      <c r="I3" s="8"/>
+      <c r="H3" s="14">
+        <v>45159.380555555559</v>
+      </c>
+      <c r="I3" s="7"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B4" s="2">
-        <v>1382</v>
+        <v>1740</v>
       </c>
       <c r="C4" s="2">
         <v>10</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E4" s="15">
-        <v>45152.55972222222</v>
+        <v>45152.613194444442</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="4">
-        <v>45159.380555555559</v>
-      </c>
-      <c r="I4" s="8"/>
+        <v>16</v>
+      </c>
+      <c r="H4" s="15">
+        <v>45159.645138888889</v>
+      </c>
+      <c r="I4" s="7"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B5" s="2">
-        <v>1740</v>
+        <v>1020</v>
       </c>
       <c r="C5" s="2">
         <v>10</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="16">
-        <v>45152.613194444442</v>
+        <v>17</v>
+      </c>
+      <c r="E5" s="14">
+        <v>45166.65347222222</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="18">
-        <v>45159.645138888889</v>
-      </c>
-      <c r="I5" s="8"/>
+        <v>18</v>
+      </c>
+      <c r="G5" s="3">
+        <v>45025.375</v>
+      </c>
+      <c r="H5" s="14">
+        <v>45173.421527777777</v>
+      </c>
+      <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="2">
-        <v>205</v>
-      </c>
-      <c r="B6" s="2">
-        <v>1020</v>
+        <v>206</v>
+      </c>
+      <c r="B6" s="6">
+        <v>1382</v>
       </c>
       <c r="C6" s="2">
         <v>10</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="15">
-        <v>45166.65347222222</v>
+        <v>20</v>
+      </c>
+      <c r="E6" s="14">
+        <v>45166.594444444447</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G6" s="3">
         <v>45025.375</v>
       </c>
-      <c r="H6" s="15">
-        <v>45025.421527777777</v>
-      </c>
-      <c r="I6" s="8"/>
+      <c r="H6" s="14">
+        <v>45173.379861111112</v>
+      </c>
+      <c r="I6" s="7"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="2">
-        <v>206</v>
-      </c>
-      <c r="B7" s="7">
-        <v>1382</v>
+        <v>208</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1020</v>
       </c>
       <c r="C7" s="2">
         <v>10</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="15">
-        <v>45166.594444444447</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>19</v>
+      <c r="D7" s="3">
+        <v>45025.486111111109</v>
+      </c>
+      <c r="E7" s="14">
+        <v>45173.525000000001</v>
+      </c>
+      <c r="F7" s="3">
+        <v>45025.479166666664</v>
       </c>
       <c r="G7" s="3">
-        <v>45025.375</v>
-      </c>
-      <c r="H7" s="15">
-        <v>45025.379861111112</v>
-      </c>
-      <c r="I7" s="8"/>
+        <v>45239.333333333336</v>
+      </c>
+      <c r="H7" s="14">
+        <v>45180.338194444441</v>
+      </c>
+      <c r="I7" s="7"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B8" s="2">
-        <v>1020</v>
+        <v>1382</v>
       </c>
       <c r="C8" s="2">
         <v>10</v>
       </c>
       <c r="D8" s="3">
-        <v>45025.486111111109</v>
-      </c>
-      <c r="E8" s="15">
-        <v>45025.525000000001</v>
+        <v>45025.538194444445</v>
+      </c>
+      <c r="E8" s="14">
+        <v>45173.584722222222</v>
       </c>
       <c r="F8" s="3">
-        <v>45025.479166666664</v>
+        <v>45025.53125</v>
       </c>
       <c r="G8" s="3">
         <v>45239.333333333336</v>
       </c>
-      <c r="H8" s="15">
-        <v>45239.338194444441</v>
-      </c>
-      <c r="I8" s="8"/>
+      <c r="H8" s="14">
+        <v>45180.344444444447</v>
+      </c>
+      <c r="I8" s="7"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B9" s="2">
-        <v>1382</v>
+        <v>1607</v>
       </c>
       <c r="C9" s="2">
         <v>10</v>
       </c>
       <c r="D9" s="3">
-        <v>45025.538194444445</v>
-      </c>
-      <c r="E9" s="15">
-        <v>45025.584722222222</v>
+        <v>45025.59375</v>
+      </c>
+      <c r="E9" s="14">
+        <v>45173.638888888891</v>
       </c>
       <c r="F9" s="3">
-        <v>45025.53125</v>
+        <v>45025.586805555555</v>
       </c>
       <c r="G9" s="3">
         <v>45239.333333333336</v>
       </c>
-      <c r="H9" s="15">
-        <v>45239.344444444447</v>
-      </c>
-      <c r="I9" s="8"/>
+      <c r="H9" s="14">
+        <v>45180.349305555559</v>
+      </c>
+      <c r="I9" s="7"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B10" s="2">
-        <v>1607</v>
+        <v>1020</v>
       </c>
       <c r="C10" s="2">
         <v>10</v>
       </c>
       <c r="D10" s="3">
-        <v>45025.59375</v>
-      </c>
-      <c r="E10" s="15">
-        <v>45025.638888888891</v>
+        <v>45239.506944444445</v>
+      </c>
+      <c r="E10" s="14">
+        <v>45180.543055555558</v>
       </c>
       <c r="F10" s="3">
-        <v>45025.586805555555</v>
-      </c>
-      <c r="G10" s="3">
-        <v>45239.333333333336</v>
-      </c>
-      <c r="H10" s="15">
-        <v>45239.349305555559</v>
-      </c>
-      <c r="I10" s="8"/>
+        <v>45239.5</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="14">
+        <v>45187.335416666669</v>
+      </c>
+      <c r="I10" s="7"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B11" s="2">
-        <v>1020</v>
+        <v>1382</v>
       </c>
       <c r="C11" s="2">
         <v>10</v>
       </c>
       <c r="D11" s="3">
-        <v>45239.506944444445</v>
-      </c>
-      <c r="E11" s="15">
-        <v>45239.543055555558</v>
+        <v>45239.579861111109</v>
+      </c>
+      <c r="E11" s="14">
+        <v>45180.629166666666</v>
       </c>
       <c r="F11" s="3">
-        <v>45239.5</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="19">
-        <v>45187.335416666669</v>
-      </c>
-      <c r="I11" s="8"/>
+        <v>45239.572916666664</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="14">
+        <v>45187.37777777778</v>
+      </c>
+      <c r="I11" s="7"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B12" s="2">
-        <v>1382</v>
+        <v>1607</v>
       </c>
       <c r="C12" s="2">
         <v>10</v>
       </c>
-      <c r="D12" s="3">
-        <v>45239.579861111109</v>
-      </c>
-      <c r="E12" s="15">
-        <v>45239.629166666666</v>
-      </c>
-      <c r="F12" s="3">
-        <v>45239.572916666664</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" s="19">
-        <v>45187.37777777778</v>
-      </c>
-      <c r="I12" s="8"/>
+      <c r="D12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="14">
+        <v>45194.62222222222</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="3">
+        <v>44967.375</v>
+      </c>
+      <c r="H12" s="14">
+        <v>45201.376388888886</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B13" s="2">
-        <v>1607</v>
+        <v>1020</v>
       </c>
       <c r="C13" s="2">
         <v>10</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="15">
-        <v>45194.62222222222</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>24</v>
+      <c r="D13" s="3">
+        <v>44967.444444444445</v>
+      </c>
+      <c r="E13" s="14">
+        <v>45201.479166666664</v>
+      </c>
+      <c r="F13" s="3">
+        <v>44967.4375</v>
       </c>
       <c r="G13" s="3">
-        <v>44967.375</v>
-      </c>
-      <c r="H13" s="15">
-        <v>44967.376388888886</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>47</v>
-      </c>
+        <v>45179.375</v>
+      </c>
+      <c r="H13" s="14">
+        <v>45208.385416666664</v>
+      </c>
+      <c r="I13" s="7"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B14" s="2">
-        <v>1020</v>
+        <v>1382</v>
       </c>
       <c r="C14" s="2">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>44967.444444444445</v>
-      </c>
-      <c r="E14" s="15">
-        <v>44967.479166666664</v>
+        <v>41315.569444444445</v>
+      </c>
+      <c r="E14" s="14">
+        <v>45201.604861111111</v>
       </c>
       <c r="F14" s="3">
-        <v>44967.4375</v>
+        <v>41315.5625</v>
       </c>
       <c r="G14" s="3">
-        <v>45179.375</v>
-      </c>
-      <c r="H14" s="15">
-        <v>45179.385416666664</v>
-      </c>
-      <c r="I14" s="8"/>
+        <v>45179.520833333336</v>
+      </c>
+      <c r="H14" s="14">
+        <v>45208.520833333336</v>
+      </c>
+      <c r="I14" s="7"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B15" s="2">
+        <v>1020</v>
+      </c>
+      <c r="C15" s="2">
+        <v>10</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="14">
+        <v>45215.470833333333</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" s="14">
+        <v>45222.348611111112</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A16" s="2">
+        <v>219</v>
+      </c>
+      <c r="B16" s="2">
         <v>1382</v>
       </c>
-      <c r="C15" s="2">
-        <v>10</v>
-      </c>
-      <c r="D15" s="3">
-        <v>41315.569444444445</v>
-      </c>
-      <c r="E15" s="15">
-        <v>44967.604861111111</v>
-      </c>
-      <c r="F15" s="3">
-        <v>41315.5625</v>
-      </c>
-      <c r="G15" s="3">
-        <v>45179.520833333336</v>
-      </c>
-      <c r="H15" s="15">
-        <v>45179.520833333336</v>
-      </c>
-      <c r="I15" s="8"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="2">
-        <v>218</v>
-      </c>
-      <c r="B16" s="2">
-        <v>1020</v>
-      </c>
       <c r="C16" s="2">
         <v>10</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="15">
-        <v>45215.470833333333</v>
+        <v>29</v>
+      </c>
+      <c r="E16" s="14">
+        <v>45215.527777777781</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H16" s="4">
-        <v>45222.348611111112</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="13.5" customHeight="1">
+      <c r="H16" s="14">
+        <v>45222.375</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B17" s="2">
-        <v>1382</v>
+        <v>1607</v>
       </c>
       <c r="C17" s="2">
         <v>10</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="15">
-        <v>45215.527777777781</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H17" s="15">
-        <v>45222.375</v>
-      </c>
-      <c r="I17" s="6" t="s">
+      <c r="D17" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="14">
+        <v>45222.473611111112</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H17" s="14">
+        <v>45229.375</v>
+      </c>
+      <c r="I17" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B18" s="2">
-        <v>1607</v>
+        <v>1020</v>
       </c>
       <c r="C18" s="2">
         <v>10</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" s="15">
-        <v>45222.473611111112</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G18" s="5" t="s">
+      <c r="D18" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="14">
+        <v>45222.548611111109</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H18" s="15">
-        <v>45229.375</v>
-      </c>
-      <c r="I18" s="3" t="s">
+      <c r="H18" s="14">
+        <v>45229.379166666666</v>
+      </c>
+      <c r="I18" s="7"/>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A19" s="2">
+        <v>223</v>
+      </c>
+      <c r="B19" s="2">
+        <v>2540</v>
+      </c>
+      <c r="C19" s="2">
+        <v>10</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="15">
+        <v>45229.481944444444</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19" s="3">
+        <v>45088.291666666664</v>
+      </c>
+      <c r="H19" s="15">
+        <v>45236.291666666664</v>
+      </c>
+      <c r="I19" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="2">
-        <v>222</v>
-      </c>
-      <c r="B19" s="2">
-        <v>1020</v>
-      </c>
-      <c r="C19" s="2">
-        <v>10</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E19" s="15">
-        <v>45222.548611111109</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H19" s="4">
-        <v>45229.379166666666</v>
-      </c>
-      <c r="I19" s="8"/>
-    </row>
-    <row r="20" spans="1:9" ht="15.75" customHeight="1">
+    <row r="20" spans="1:9" ht="16.5" customHeight="1">
       <c r="A20" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B20" s="2">
-        <v>2540</v>
+        <v>2663</v>
       </c>
       <c r="C20" s="2">
         <v>10</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E20" s="16">
-        <v>45229.481944444444</v>
+        <v>37</v>
+      </c>
+      <c r="E20" s="15">
+        <v>45229.558333333334</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G20" s="3">
-        <v>45088.291666666664</v>
+        <v>45088.375</v>
       </c>
       <c r="H20" s="15">
-        <v>45236.291666666664</v>
-      </c>
-      <c r="I20" s="6" t="s">
+        <v>45236.375</v>
+      </c>
+      <c r="I20" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="16.5" customHeight="1">
+    <row r="21" spans="1:9" ht="18" customHeight="1">
       <c r="A21" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B21" s="2">
-        <v>2663</v>
+        <v>2793</v>
       </c>
       <c r="C21" s="2">
         <v>10</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E21" s="16">
-        <v>45229.558333333334</v>
+        <v>39</v>
+      </c>
+      <c r="E21" s="15">
+        <v>45229.628472222219</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G21" s="3">
         <v>45088.375</v>
@@ -1239,223 +1244,202 @@
       <c r="H21" s="15">
         <v>45236.375</v>
       </c>
-      <c r="I21" s="6" t="s">
+      <c r="I21" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="18" customHeight="1">
+    <row r="22" spans="1:9">
       <c r="A22" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B22" s="2">
-        <v>2793</v>
+        <v>1382</v>
       </c>
       <c r="C22" s="2">
         <v>10</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E22" s="16">
-        <v>45229.628472222219</v>
+        <v>41</v>
+      </c>
+      <c r="E22" s="15">
+        <v>45229.69027777778</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G22" s="3">
         <v>45088.375</v>
       </c>
-      <c r="H22" s="16">
+      <c r="H22" s="15">
         <v>45236.375</v>
       </c>
-      <c r="I22" s="6" t="s">
-        <v>25</v>
-      </c>
+      <c r="I22" s="7"/>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B23" s="2">
-        <v>1382</v>
+        <v>1607</v>
       </c>
       <c r="C23" s="2">
         <v>10</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E23" s="16">
-        <v>45229.69027777778</v>
+        <v>43</v>
+      </c>
+      <c r="E23" s="15">
+        <v>45229.738888888889</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G23" s="3">
         <v>45088.375</v>
       </c>
-      <c r="H23" s="16">
+      <c r="H23" s="15">
         <v>45236.375</v>
       </c>
-      <c r="I23" s="8"/>
+      <c r="I23" s="7"/>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="2">
-        <v>227</v>
-      </c>
-      <c r="B24" s="2">
-        <v>1607</v>
-      </c>
-      <c r="C24" s="2">
-        <v>10</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E24" s="16">
-        <v>45229.738888888889</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G24" s="3">
-        <v>45088.375</v>
-      </c>
-      <c r="H24" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="I24" s="8"/>
+        <v>228</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1020</v>
+      </c>
+      <c r="C24" s="1">
+        <v>10</v>
+      </c>
+      <c r="D24" s="3">
+        <v>45088.423611111109</v>
+      </c>
+      <c r="E24" s="14">
+        <v>45236.459722222222</v>
+      </c>
+      <c r="F24" s="3">
+        <v>45088.416666666664</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" s="14">
+        <v>45243.325694444444</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="2">
-        <v>228</v>
-      </c>
-      <c r="B25" s="1">
-        <v>1020</v>
-      </c>
-      <c r="C25" s="1">
+        <v>229</v>
+      </c>
+      <c r="B25" s="2">
+        <v>2540</v>
+      </c>
+      <c r="C25" s="2">
         <v>10</v>
       </c>
       <c r="D25" s="3">
-        <v>45088.423611111109</v>
-      </c>
-      <c r="E25" s="15">
-        <v>45088.459722222222</v>
+        <v>45088.46875</v>
+      </c>
+      <c r="E25" s="14">
+        <v>45236.523611111108</v>
       </c>
       <c r="F25" s="3">
-        <v>45088.416666666664</v>
+        <v>45088.461805555555</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="H25" s="4">
-        <v>45243.325694444444</v>
+      <c r="H25" s="14">
+        <v>45243.376388888886</v>
       </c>
       <c r="I25" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" ht="14.25" customHeight="1">
       <c r="A26" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B26" s="2">
-        <v>2540</v>
+        <v>2663</v>
       </c>
       <c r="C26" s="2">
         <v>10</v>
       </c>
       <c r="D26" s="3">
-        <v>45088.46875</v>
-      </c>
-      <c r="E26" s="15">
-        <v>45088.523611111108</v>
+        <v>45088.548611111109</v>
+      </c>
+      <c r="E26" s="14">
+        <v>45236.584722222222</v>
       </c>
       <c r="F26" s="3">
-        <v>45088.461805555555</v>
+        <v>45088.541666666664</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="H26" s="4">
-        <v>45243.376388888886</v>
-      </c>
-      <c r="I26" s="3" t="s">
+      <c r="H26" s="14">
+        <v>45243.375</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="2">
+        <v>231</v>
+      </c>
+      <c r="B27" s="2">
+        <v>2793</v>
+      </c>
+      <c r="C27" s="2">
+        <v>10</v>
+      </c>
+      <c r="D27" s="3">
+        <v>45088.673611111109</v>
+      </c>
+      <c r="E27" s="14">
+        <v>45236.716666666667</v>
+      </c>
+      <c r="F27" s="3">
+        <v>45088.666666666664</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" s="14">
+        <v>45243.40902777778</v>
+      </c>
+      <c r="I27" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A27" s="2">
-        <v>230</v>
-      </c>
-      <c r="B27" s="2">
-        <v>2663</v>
-      </c>
-      <c r="C27" s="2">
-        <v>10</v>
-      </c>
-      <c r="D27" s="3">
-        <v>45088.548611111109</v>
-      </c>
-      <c r="E27" s="15">
-        <v>45088.584722222222</v>
-      </c>
-      <c r="F27" s="3">
-        <v>45088.541666666664</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H27" s="15">
-        <v>45243.375</v>
-      </c>
-      <c r="I27" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="2">
-        <v>231</v>
-      </c>
-      <c r="B28" s="2">
-        <v>2793</v>
-      </c>
-      <c r="C28" s="2">
-        <v>10</v>
-      </c>
-      <c r="D28" s="3">
-        <v>45088.673611111109</v>
-      </c>
-      <c r="E28" s="15">
-        <v>45088.716666666667</v>
-      </c>
-      <c r="F28" s="3">
-        <v>45088.666666666664</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H28" s="4">
-        <v>45243.40902777778</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>47</v>
-      </c>
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="I28" s="7"/>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
-      <c r="D29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="I29" s="8"/>
+      <c r="I29" s="7"/>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
-      <c r="I30" s="8"/>
+      <c r="D30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="2"/>
@@ -1464,6 +1448,7 @@
       <c r="D31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
+      <c r="I31" s="7"/>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="2"/>
@@ -1472,23 +1457,23 @@
       <c r="D32" s="3"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
-      <c r="I32" s="8"/>
+      <c r="I32" s="7"/>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="I33" s="8"/>
+      <c r="I33" s="7"/>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="3"/>
-      <c r="I34" s="8"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="I34" s="7"/>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="2"/>
@@ -1497,7 +1482,7 @@
       <c r="D35" s="3"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
-      <c r="I35" s="8"/>
+      <c r="I35" s="7"/>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="2"/>
@@ -1506,23 +1491,23 @@
       <c r="D36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
-      <c r="I36" s="8"/>
+      <c r="I36" s="7"/>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="I37" s="8"/>
+      <c r="I37" s="7"/>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="3"/>
-      <c r="I38" s="8"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="I38" s="7"/>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="2"/>
@@ -1531,7 +1516,7 @@
       <c r="D39" s="3"/>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
-      <c r="I39" s="8"/>
+      <c r="I39" s="7"/>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="2"/>
@@ -1540,23 +1525,23 @@
       <c r="D40" s="3"/>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
-      <c r="I40" s="8"/>
+      <c r="I40" s="7"/>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="I41" s="8"/>
+      <c r="I41" s="7"/>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="3"/>
-      <c r="I42" s="8"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="I42" s="7"/>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="2"/>
@@ -1565,7 +1550,7 @@
       <c r="D43" s="3"/>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
-      <c r="I43" s="8"/>
+      <c r="I43" s="7"/>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="2"/>
@@ -1574,31 +1559,31 @@
       <c r="D44" s="3"/>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
-      <c r="I44" s="8"/>
+      <c r="I44" s="7"/>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="I45" s="8"/>
+      <c r="I45" s="7"/>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
+      <c r="C46" s="4"/>
       <c r="D46" s="3"/>
-      <c r="I46" s="8"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
-      <c r="C47" s="5"/>
+      <c r="C47" s="2"/>
       <c r="D47" s="3"/>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
+      <c r="I47" s="7"/>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="2"/>
@@ -1607,23 +1592,23 @@
       <c r="D48" s="3"/>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
-      <c r="I48" s="8"/>
+      <c r="I48" s="7"/>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="I49" s="8"/>
+      <c r="I49" s="7"/>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="3"/>
-      <c r="I50" s="8"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="I50" s="7"/>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="2"/>
@@ -1632,7 +1617,7 @@
       <c r="D51" s="3"/>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
-      <c r="I51" s="8"/>
+      <c r="I51" s="7"/>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="2"/>
@@ -1641,23 +1626,22 @@
       <c r="D52" s="3"/>
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
-      <c r="I52" s="8"/>
+      <c r="I52" s="7"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="3"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
-      <c r="I53" s="8"/>
+      <c r="I53" s="7"/>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="3"/>
-      <c r="I54" s="8"/>
+      <c r="F54" s="3"/>
+      <c r="I54" s="7"/>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="2"/>
@@ -1665,7 +1649,7 @@
       <c r="C55" s="2"/>
       <c r="D55" s="3"/>
       <c r="F55" s="3"/>
-      <c r="I55" s="8"/>
+      <c r="I55" s="7"/>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="2"/>
@@ -1673,22 +1657,23 @@
       <c r="C56" s="2"/>
       <c r="D56" s="3"/>
       <c r="F56" s="3"/>
-      <c r="I56" s="8"/>
+      <c r="I56" s="7"/>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="3"/>
-      <c r="F57" s="3"/>
-      <c r="I57" s="8"/>
+      <c r="I57" s="7"/>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="3"/>
-      <c r="I58" s="8"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="I58" s="7"/>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="2"/>
@@ -1697,7 +1682,7 @@
       <c r="D59" s="3"/>
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
-      <c r="I59" s="8"/>
+      <c r="I59" s="7"/>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="2"/>
@@ -1706,19 +1691,18 @@
       <c r="D60" s="3"/>
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
-      <c r="I60" s="8"/>
+      <c r="I60" s="7"/>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="2"/>
-      <c r="B61" s="2"/>
       <c r="C61" s="2"/>
-      <c r="D61" s="3"/>
-      <c r="F61" s="3"/>
-      <c r="G61" s="3"/>
-      <c r="I61" s="8"/>
     </row>
     <row r="62" spans="1:9">
+      <c r="A62" s="2"/>
+      <c r="B62" s="2"/>
       <c r="C62" s="2"/>
+      <c r="D62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="2"/>
@@ -1737,15 +1721,16 @@
       <c r="G64" s="3"/>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="2"/>
-      <c r="B65" s="2"/>
       <c r="C65" s="2"/>
-      <c r="D65" s="3"/>
-      <c r="F65" s="3"/>
-      <c r="G65" s="3"/>
     </row>
     <row r="66" spans="1:9">
+      <c r="A66" s="2"/>
+      <c r="B66" s="2"/>
       <c r="C66" s="2"/>
+      <c r="D66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="3"/>
+      <c r="I66" s="7"/>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="2"/>
@@ -1754,7 +1739,7 @@
       <c r="D67" s="3"/>
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
-      <c r="I67" s="8"/>
+      <c r="I67" s="7"/>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="2"/>
@@ -1763,19 +1748,19 @@
       <c r="D68" s="3"/>
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
-      <c r="I68" s="8"/>
+      <c r="I68" s="7"/>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="2"/>
-      <c r="B69" s="2"/>
       <c r="C69" s="2"/>
-      <c r="D69" s="3"/>
-      <c r="F69" s="3"/>
-      <c r="G69" s="3"/>
-      <c r="I69" s="8"/>
     </row>
     <row r="70" spans="1:9">
+      <c r="A70" s="2"/>
+      <c r="B70" s="2"/>
       <c r="C70" s="2"/>
+      <c r="D70" s="3"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
+      <c r="I70" s="7"/>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="2"/>
@@ -1784,7 +1769,7 @@
       <c r="D71" s="3"/>
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
-      <c r="I71" s="8"/>
+      <c r="I71" s="7"/>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" s="2"/>
@@ -1793,19 +1778,19 @@
       <c r="D72" s="3"/>
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
-      <c r="I72" s="8"/>
+      <c r="I72" s="7"/>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="2"/>
-      <c r="B73" s="2"/>
       <c r="C73" s="2"/>
-      <c r="D73" s="3"/>
-      <c r="F73" s="3"/>
-      <c r="G73" s="3"/>
-      <c r="I73" s="8"/>
     </row>
     <row r="74" spans="1:9">
+      <c r="A74" s="2"/>
+      <c r="B74" s="2"/>
       <c r="C74" s="2"/>
+      <c r="D74" s="3"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="3"/>
+      <c r="I74" s="7"/>
     </row>
     <row r="75" spans="1:9">
       <c r="A75" s="2"/>
@@ -1814,7 +1799,7 @@
       <c r="D75" s="3"/>
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
-      <c r="I75" s="8"/>
+      <c r="I75" s="7"/>
     </row>
     <row r="76" spans="1:9">
       <c r="A76" s="2"/>
@@ -1823,18 +1808,18 @@
       <c r="D76" s="3"/>
       <c r="F76" s="3"/>
       <c r="G76" s="3"/>
-      <c r="I76" s="8"/>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="2"/>
-      <c r="B77" s="2"/>
       <c r="C77" s="2"/>
-      <c r="D77" s="3"/>
-      <c r="F77" s="3"/>
-      <c r="G77" s="3"/>
     </row>
     <row r="78" spans="1:9">
+      <c r="A78" s="2"/>
+      <c r="B78" s="2"/>
       <c r="C78" s="2"/>
+      <c r="D78" s="3"/>
+      <c r="F78" s="3"/>
+      <c r="G78" s="3"/>
+      <c r="I78" s="7"/>
     </row>
     <row r="79" spans="1:9">
       <c r="A79" s="2"/>
@@ -1843,7 +1828,7 @@
       <c r="D79" s="3"/>
       <c r="F79" s="3"/>
       <c r="G79" s="3"/>
-      <c r="I79" s="8"/>
+      <c r="I79" s="7"/>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" s="2"/>
@@ -1852,18 +1837,18 @@
       <c r="D80" s="3"/>
       <c r="F80" s="3"/>
       <c r="G80" s="3"/>
-      <c r="I80" s="8"/>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="2"/>
-      <c r="B81" s="2"/>
       <c r="C81" s="2"/>
-      <c r="D81" s="3"/>
-      <c r="F81" s="3"/>
-      <c r="G81" s="3"/>
     </row>
     <row r="82" spans="1:9">
+      <c r="A82" s="2"/>
+      <c r="B82" s="2"/>
       <c r="C82" s="2"/>
+      <c r="D82" s="3"/>
+      <c r="F82" s="3"/>
+      <c r="G82" s="3"/>
+      <c r="I82" s="7"/>
     </row>
     <row r="83" spans="1:9">
       <c r="A83" s="2"/>
@@ -1872,7 +1857,7 @@
       <c r="D83" s="3"/>
       <c r="F83" s="3"/>
       <c r="G83" s="3"/>
-      <c r="I83" s="8"/>
+      <c r="I83" s="7"/>
     </row>
     <row r="84" spans="1:9">
       <c r="A84" s="2"/>
@@ -1881,19 +1866,19 @@
       <c r="D84" s="3"/>
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
-      <c r="I84" s="8"/>
+      <c r="I84" s="7"/>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="2"/>
-      <c r="B85" s="2"/>
       <c r="C85" s="2"/>
-      <c r="D85" s="3"/>
-      <c r="F85" s="3"/>
-      <c r="G85" s="3"/>
-      <c r="I85" s="8"/>
     </row>
     <row r="86" spans="1:9">
+      <c r="A86" s="2"/>
+      <c r="B86" s="2"/>
       <c r="C86" s="2"/>
+      <c r="D86" s="3"/>
+      <c r="F86" s="3"/>
+      <c r="G86" s="3"/>
+      <c r="I86" s="7"/>
     </row>
     <row r="87" spans="1:9">
       <c r="A87" s="2"/>
@@ -1902,7 +1887,7 @@
       <c r="D87" s="3"/>
       <c r="F87" s="3"/>
       <c r="G87" s="3"/>
-      <c r="I87" s="8"/>
+      <c r="I87" s="7"/>
     </row>
     <row r="88" spans="1:9">
       <c r="A88" s="2"/>
@@ -1911,19 +1896,19 @@
       <c r="D88" s="3"/>
       <c r="F88" s="3"/>
       <c r="G88" s="3"/>
-      <c r="I88" s="8"/>
+      <c r="I88" s="7"/>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="2"/>
-      <c r="B89" s="2"/>
       <c r="C89" s="2"/>
-      <c r="D89" s="3"/>
-      <c r="F89" s="3"/>
-      <c r="G89" s="3"/>
-      <c r="I89" s="8"/>
     </row>
     <row r="90" spans="1:9">
+      <c r="A90" s="2"/>
+      <c r="B90" s="2"/>
       <c r="C90" s="2"/>
+      <c r="D90" s="3"/>
+      <c r="F90" s="3"/>
+      <c r="G90" s="3"/>
+      <c r="I90" s="7"/>
     </row>
     <row r="91" spans="1:9">
       <c r="A91" s="2"/>
@@ -1932,7 +1917,7 @@
       <c r="D91" s="3"/>
       <c r="F91" s="3"/>
       <c r="G91" s="3"/>
-      <c r="I91" s="8"/>
+      <c r="I91" s="7"/>
     </row>
     <row r="92" spans="1:9">
       <c r="A92" s="2"/>
@@ -1941,19 +1926,10 @@
       <c r="D92" s="3"/>
       <c r="F92" s="3"/>
       <c r="G92" s="3"/>
-      <c r="I92" s="8"/>
+      <c r="I92" s="7"/>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="2"/>
-      <c r="B93" s="2"/>
       <c r="C93" s="2"/>
-      <c r="D93" s="3"/>
-      <c r="F93" s="3"/>
-      <c r="G93" s="3"/>
-      <c r="I93" s="8"/>
-    </row>
-    <row r="94" spans="1:9">
-      <c r="C94" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
